--- a/Arkusze/Doktorat_obliczenia_EU-28_2011.xlsx
+++ b/Arkusze/Doktorat_obliczenia_EU-28_2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zemat\OneDrive\R_Map_Stats_GreenJobs\Arkusze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="10_ncr:100000_{24B492BE-E66D-4889-8091-C50BBF7A7B20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{93C1D575-3B67-4ED7-8A63-77602A5C74C9}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="10_ncr:100000_{24B492BE-E66D-4889-8091-C50BBF7A7B20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CADF4B00-05C9-4F72-B484-38716ABF36D5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="96">
   <si>
     <t>metoda</t>
   </si>
@@ -237,69 +237,6 @@
     <t>symbolh</t>
   </si>
   <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
-    <t>X8</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>X13</t>
-  </si>
-  <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>X15</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>X17</t>
-  </si>
-  <si>
-    <t>X18</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>X21</t>
-  </si>
-  <si>
-    <t>X22</t>
-  </si>
-  <si>
-    <t>X23</t>
-  </si>
-  <si>
-    <t>X24</t>
-  </si>
-  <si>
-    <t>X25</t>
-  </si>
-  <si>
-    <t>X26</t>
-  </si>
-  <si>
-    <t>X27</t>
-  </si>
-  <si>
     <t>Chroniony obszar lądowy (% powierzchni państwa)</t>
   </si>
   <si>
@@ -376,6 +313,9 @@
   </si>
   <si>
     <t>d0</t>
+  </si>
+  <si>
+    <t>kraj</t>
   </si>
 </sst>
 </file>
@@ -2349,15 +2289,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A58551-9ED9-486B-8F21-70E9A87053CA}">
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
       <c r="B1" t="s">
         <v>69</v>
       </c>
@@ -2422,292 +2365,297 @@
         <v>89</v>
       </c>
       <c r="W1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Y1" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="Z1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AA1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AB1" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="AC1" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AD1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T2" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" t="s">
-        <v>110</v>
-      </c>
-      <c r="W2" t="s">
-        <v>111</v>
-      </c>
-      <c r="X2" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>124.2</v>
+      </c>
+      <c r="D2">
+        <v>365</v>
+      </c>
+      <c r="E2">
+        <v>70.3</v>
+      </c>
+      <c r="F2">
+        <v>1.9</v>
+      </c>
+      <c r="G2">
+        <v>3.9</v>
+      </c>
+      <c r="H2">
+        <v>19.2</v>
+      </c>
+      <c r="I2">
+        <v>20.6</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>573</v>
+      </c>
+      <c r="L2">
+        <v>30.6</v>
+      </c>
+      <c r="M2">
+        <v>27.9</v>
+      </c>
+      <c r="N2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P2">
+        <v>2.42</v>
+      </c>
+      <c r="Q2">
+        <v>118</v>
+      </c>
+      <c r="R2">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="S2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T2">
+        <v>8.9</v>
+      </c>
+      <c r="U2">
+        <v>19.2</v>
+      </c>
+      <c r="V2">
+        <v>171.2</v>
+      </c>
+      <c r="W2">
+        <v>607.61</v>
+      </c>
+      <c r="X2">
+        <v>0.26</v>
       </c>
       <c r="Y2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>115</v>
+        <v>25</v>
+      </c>
+      <c r="Z2">
+        <v>0.26</v>
+      </c>
+      <c r="AA2">
+        <v>0.25571604599999997</v>
+      </c>
+      <c r="AB2">
+        <v>556.45000000000005</v>
+      </c>
+      <c r="AC2">
+        <v>129.96</v>
+      </c>
+      <c r="AD2">
+        <v>816.38</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>124.2</v>
+        <v>104.9</v>
       </c>
       <c r="D3">
-        <v>365</v>
+        <v>231.7619048</v>
       </c>
       <c r="E3">
-        <v>70.3</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="F3">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="G3">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H3">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
       <c r="I3">
-        <v>20.6</v>
+        <v>13.6</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>573</v>
+        <v>456</v>
       </c>
       <c r="L3">
-        <v>30.6</v>
+        <v>6.3</v>
       </c>
       <c r="M3">
-        <v>27.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="N3">
-        <v>19.600000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O3">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P3">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="Q3">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R3">
-        <v>8.7799999999999994</v>
+        <v>7.79</v>
       </c>
       <c r="S3">
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="T3">
-        <v>8.9</v>
+        <v>18.7</v>
       </c>
       <c r="U3">
-        <v>19.2</v>
+        <v>21</v>
       </c>
       <c r="V3">
-        <v>171.2</v>
+        <v>91.5</v>
       </c>
       <c r="W3">
-        <v>607.61</v>
+        <v>543.4</v>
       </c>
       <c r="X3">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="Y3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z3">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="AA3">
-        <v>0.25571604599999997</v>
+        <v>0.33436871099999999</v>
       </c>
       <c r="AB3">
-        <v>556.45000000000005</v>
+        <f>AVERAGE(Z2:Z29)</f>
+        <v>0.32</v>
       </c>
       <c r="AC3">
-        <v>129.96</v>
-      </c>
-      <c r="AD3">
-        <v>816.38</v>
+        <f>STDEV(Z2:Z29)</f>
+        <v>0.15326085243430193</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>104.9</v>
+        <v>120.5</v>
       </c>
       <c r="D4">
-        <v>231.7619048</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>75.400000000000006</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>4.8</v>
+        <v>70.2</v>
       </c>
       <c r="G4">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>19.7</v>
+        <v>12.2</v>
       </c>
       <c r="I4">
-        <v>13.6</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="K4">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="L4">
-        <v>6.3</v>
+        <v>14.3</v>
       </c>
       <c r="M4">
-        <v>9.8000000000000007</v>
+        <v>30.4</v>
       </c>
       <c r="N4">
-        <v>4.0999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="O4">
-        <v>0.28999999999999998</v>
+        <v>0.69</v>
       </c>
       <c r="P4">
-        <v>2.25</v>
+        <v>2.68</v>
       </c>
       <c r="Q4">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="R4">
-        <v>7.79</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="T4">
-        <v>18.7</v>
+        <v>25</v>
       </c>
       <c r="U4">
-        <v>21</v>
+        <v>49.1</v>
       </c>
       <c r="V4">
-        <v>91.5</v>
+        <v>26.7</v>
       </c>
       <c r="W4">
-        <v>543.4</v>
+        <v>566.05999999999995</v>
       </c>
       <c r="X4">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="Y4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z4">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AA4">
-        <v>0.33436871099999999</v>
+        <v>0.30661492099999998</v>
       </c>
       <c r="AB4" t="s">
         <v>20</v>
@@ -2721,85 +2669,85 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>120.5</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>487</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>49.4</v>
       </c>
       <c r="F5">
-        <v>70.2</v>
+        <v>6.9</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H5">
-        <v>12.2</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>17.100000000000001</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>508</v>
+        <v>384</v>
       </c>
       <c r="L5">
-        <v>14.3</v>
+        <v>25.4</v>
       </c>
       <c r="M5">
-        <v>30.4</v>
+        <v>31.4</v>
       </c>
       <c r="N5">
-        <v>0.5</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="O5">
-        <v>0.69</v>
+        <v>0.8</v>
       </c>
       <c r="P5">
         <v>2.68</v>
       </c>
       <c r="Q5">
-        <v>43</v>
+        <v>71.25</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S5">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="T5">
-        <v>25</v>
+        <v>36.6</v>
       </c>
       <c r="U5">
-        <v>49.1</v>
+        <v>32.6</v>
       </c>
       <c r="V5">
-        <v>26.7</v>
+        <v>48.333333330000002</v>
       </c>
       <c r="W5">
-        <v>566.05999999999995</v>
+        <v>696.06</v>
       </c>
       <c r="X5">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="Y5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z5">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="AA5">
-        <v>0.30661492099999998</v>
+        <v>0.14737398500000001</v>
       </c>
       <c r="AB5" t="s">
         <v>20</v>
@@ -2813,85 +2761,85 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>100.7</v>
+      </c>
+      <c r="D6">
+        <v>213</v>
+      </c>
+      <c r="E6">
+        <v>92.4</v>
+      </c>
+      <c r="F6">
+        <v>24.6</v>
+      </c>
+      <c r="G6">
+        <v>3.3</v>
+      </c>
+      <c r="H6">
+        <v>27.5</v>
+      </c>
+      <c r="I6">
+        <v>13.9</v>
+      </c>
+      <c r="J6">
         <v>32</v>
       </c>
-      <c r="B6">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>97</v>
-      </c>
-      <c r="D6">
-        <v>487</v>
-      </c>
-      <c r="E6">
-        <v>49.4</v>
-      </c>
-      <c r="F6">
-        <v>6.9</v>
-      </c>
-      <c r="G6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
+        <v>672</v>
+      </c>
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>384</v>
-      </c>
-      <c r="L6">
-        <v>25.4</v>
-      </c>
       <c r="M6">
-        <v>31.4</v>
+        <v>212.6</v>
       </c>
       <c r="N6">
-        <v>4.1100000000000003</v>
+        <v>2.9</v>
       </c>
       <c r="O6">
-        <v>0.8</v>
+        <v>0.18</v>
       </c>
       <c r="P6">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="Q6">
-        <v>71.25</v>
+        <v>66</v>
       </c>
       <c r="R6">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="S6">
-        <v>0.21</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T6">
-        <v>36.6</v>
+        <v>22.4</v>
       </c>
       <c r="U6">
-        <v>32.6</v>
+        <v>24.6</v>
       </c>
       <c r="V6">
-        <v>48.333333330000002</v>
+        <v>144.90352630000001</v>
       </c>
       <c r="W6">
-        <v>696.06</v>
+        <v>593.14</v>
       </c>
       <c r="X6">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="Y6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z6">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="AA6">
-        <v>0.14737398500000001</v>
+        <v>0.27344369299999999</v>
       </c>
       <c r="AB6" t="s">
         <v>20</v>
@@ -2905,85 +2853,85 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>100.7</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="D7">
-        <v>213</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>92.4</v>
+        <v>28.8</v>
       </c>
       <c r="F7">
-        <v>24.6</v>
+        <v>15.3</v>
       </c>
       <c r="G7">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H7">
-        <v>27.5</v>
+        <v>15.3</v>
       </c>
       <c r="I7">
-        <v>13.9</v>
+        <v>14.8</v>
       </c>
       <c r="J7">
-        <v>32</v>
+        <v>-3</v>
       </c>
       <c r="K7">
-        <v>672</v>
+        <v>320</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>10.9</v>
       </c>
       <c r="M7">
-        <v>212.6</v>
+        <v>8</v>
       </c>
       <c r="N7">
-        <v>2.9</v>
+        <v>13.1</v>
       </c>
       <c r="O7">
-        <v>0.18</v>
+        <v>0.86</v>
       </c>
       <c r="P7">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="Q7">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="R7">
-        <v>1.5</v>
+        <v>5.92</v>
       </c>
       <c r="S7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.31</v>
       </c>
       <c r="T7">
-        <v>22.4</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="U7">
-        <v>24.6</v>
+        <v>15.3</v>
       </c>
       <c r="V7">
-        <v>144.90352630000001</v>
+        <v>106.25</v>
       </c>
       <c r="W7">
-        <v>593.14</v>
+        <v>437.5</v>
       </c>
       <c r="X7">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="Y7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="Z7">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="AA7">
-        <v>0.27344369299999999</v>
+        <v>0.464097553</v>
       </c>
       <c r="AB7" t="s">
         <v>20</v>
@@ -2997,85 +2945,85 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>141.19999999999999</v>
+        <v>115.1</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>231.7619048</v>
       </c>
       <c r="E8">
-        <v>28.8</v>
+        <v>-5.6</v>
       </c>
       <c r="F8">
-        <v>15.3</v>
+        <v>2.6</v>
       </c>
       <c r="G8">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="H8">
-        <v>15.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I8">
-        <v>14.8</v>
+        <v>21.9</v>
       </c>
       <c r="J8">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>320</v>
+        <v>781</v>
       </c>
       <c r="L8">
-        <v>10.9</v>
+        <v>23.5</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>13.1</v>
+        <v>6.1</v>
       </c>
       <c r="O8">
-        <v>0.86</v>
+        <v>0.4</v>
       </c>
       <c r="P8">
-        <v>2.34</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="Q8">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="R8">
-        <v>5.92</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="T8">
-        <v>18.100000000000001</v>
+        <v>14.2</v>
       </c>
       <c r="U8">
-        <v>15.3</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="V8">
-        <v>106.25</v>
+        <v>68.575000000000003</v>
       </c>
       <c r="W8">
-        <v>437.5</v>
+        <v>735.84</v>
       </c>
       <c r="X8">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="Y8" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Z8">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="AA8">
-        <v>0.464097553</v>
+        <v>9.8645712999999996E-2</v>
       </c>
       <c r="AB8" t="s">
         <v>20</v>
@@ -3089,85 +3037,85 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>115.1</v>
+        <v>95.4</v>
       </c>
       <c r="D9">
-        <v>231.7619048</v>
+        <v>218</v>
       </c>
       <c r="E9">
-        <v>-5.6</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>2.6</v>
+        <v>54.8</v>
       </c>
       <c r="G9">
-        <v>6.1</v>
+        <v>25.9</v>
       </c>
       <c r="H9">
-        <v>18.600000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="I9">
-        <v>21.9</v>
+        <v>28.8</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="K9">
-        <v>781</v>
+        <v>301</v>
       </c>
       <c r="L9">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>12.6</v>
       </c>
       <c r="N9">
-        <v>6.1</v>
+        <v>14.1</v>
       </c>
       <c r="O9">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="P9">
-        <v>4.0199999999999996</v>
+        <v>2.73</v>
       </c>
       <c r="Q9">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="T9">
-        <v>14.2</v>
+        <v>22.4</v>
       </c>
       <c r="U9">
-        <v>17.600000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="V9">
-        <v>68.575000000000003</v>
+        <v>28.25</v>
       </c>
       <c r="W9">
-        <v>735.84</v>
+        <v>553.79999999999995</v>
       </c>
       <c r="X9">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="Y9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z9">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="AA9">
-        <v>9.8645712999999996E-2</v>
+        <v>0.32163384299999997</v>
       </c>
       <c r="AB9" t="s">
         <v>20</v>
@@ -3181,85 +3129,85 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>95.4</v>
+        <v>113.5</v>
       </c>
       <c r="D10">
-        <v>218</v>
+        <v>231.7619048</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>52.8</v>
       </c>
       <c r="F10">
-        <v>54.8</v>
+        <v>11.3</v>
       </c>
       <c r="G10">
-        <v>25.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H10">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="I10">
-        <v>28.8</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="J10">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="K10">
-        <v>301</v>
+        <v>505</v>
       </c>
       <c r="L10">
-        <v>25.5</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M10">
-        <v>12.6</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="N10">
-        <v>14.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="O10">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="P10">
-        <v>2.73</v>
+        <v>3.02</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>6.87</v>
       </c>
       <c r="S10">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="T10">
-        <v>22.4</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="U10">
-        <v>23.1</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="V10">
-        <v>28.25</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="W10">
-        <v>553.79999999999995</v>
+        <v>510.79</v>
       </c>
       <c r="X10">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="Y10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Z10">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="AA10">
-        <v>0.32163384299999997</v>
+        <v>0.37431818100000003</v>
       </c>
       <c r="AB10" t="s">
         <v>20</v>
@@ -3273,85 +3221,85 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>113.5</v>
+        <v>126.6</v>
       </c>
       <c r="D11">
-        <v>231.7619048</v>
+        <v>799</v>
       </c>
       <c r="E11">
-        <v>52.8</v>
+        <v>48.6</v>
       </c>
       <c r="F11">
-        <v>11.3</v>
+        <v>3.7</v>
       </c>
       <c r="G11">
-        <v>8.6999999999999993</v>
+        <v>4.5</v>
       </c>
       <c r="H11">
-        <v>13.1</v>
+        <v>18.5</v>
       </c>
       <c r="I11">
-        <v>37.299999999999997</v>
+        <v>12</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="L11">
-        <v>32.799999999999997</v>
+        <v>11.1</v>
       </c>
       <c r="M11">
-        <v>71.400000000000006</v>
+        <v>131.6</v>
       </c>
       <c r="N11">
-        <v>8.1999999999999993</v>
+        <v>3.4</v>
       </c>
       <c r="O11">
-        <v>0.43</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P11">
-        <v>3.02</v>
+        <v>1.92</v>
       </c>
       <c r="Q11">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="R11">
-        <v>6.87</v>
+        <v>38.54</v>
       </c>
       <c r="S11">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="T11">
-        <v>20.100000000000001</v>
+        <v>22.6</v>
       </c>
       <c r="U11">
-        <v>17.899999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="V11">
-        <v>132.69999999999999</v>
+        <v>460.3</v>
       </c>
       <c r="W11">
-        <v>510.79</v>
+        <v>854.28</v>
       </c>
       <c r="X11">
-        <v>0.37</v>
+        <v>-0.05</v>
       </c>
       <c r="Y11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z11">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.37431818100000003</v>
+        <v>-4.6428821000000002E-2</v>
       </c>
       <c r="AB11" t="s">
         <v>20</v>
@@ -3365,85 +3313,85 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>126.6</v>
+        <v>104.3</v>
       </c>
       <c r="D12">
-        <v>799</v>
+        <v>206</v>
       </c>
       <c r="E12">
-        <v>48.6</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="F12">
-        <v>3.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G12">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
       <c r="H12">
-        <v>18.5</v>
+        <v>25.1</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K12">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="L12">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="M12">
-        <v>131.6</v>
+        <v>12.4</v>
       </c>
       <c r="N12">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="O12">
-        <v>0.14000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="P12">
-        <v>1.92</v>
+        <v>2.91</v>
       </c>
       <c r="Q12">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="R12">
-        <v>38.54</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="T12">
-        <v>22.6</v>
+        <v>44.7</v>
       </c>
       <c r="U12">
-        <v>19.3</v>
+        <v>31</v>
       </c>
       <c r="V12">
-        <v>460.3</v>
+        <v>145.53229060000001</v>
       </c>
       <c r="W12">
-        <v>854.28</v>
+        <v>522.98</v>
       </c>
       <c r="X12">
-        <v>-0.05</v>
+        <v>0.36</v>
       </c>
       <c r="Y12" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AA12">
-        <v>-4.6428821000000002E-2</v>
+        <v>0.35939340199999997</v>
       </c>
       <c r="AB12" t="s">
         <v>20</v>
@@ -3457,85 +3405,85 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>27</v>
       </c>
       <c r="C13">
-        <v>104.3</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="D13">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="E13">
-        <v>65.099999999999994</v>
+        <v>76.3</v>
       </c>
       <c r="F13">
-        <v>17.100000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="G13">
-        <v>7.4</v>
+        <v>3.9</v>
       </c>
       <c r="H13">
-        <v>25.1</v>
+        <v>15.6</v>
       </c>
       <c r="I13">
-        <v>12.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J13">
         <v>-1</v>
       </c>
       <c r="K13">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="L13">
-        <v>10.9</v>
+        <v>13.2</v>
       </c>
       <c r="M13">
-        <v>12.4</v>
+        <v>101.5</v>
       </c>
       <c r="N13">
-        <v>5.2</v>
+        <v>7.5</v>
       </c>
       <c r="O13">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="P13">
-        <v>2.91</v>
+        <v>1.58</v>
       </c>
       <c r="Q13">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>15.45</v>
       </c>
       <c r="S13">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="T13">
-        <v>44.7</v>
+        <v>46.2</v>
       </c>
       <c r="U13">
-        <v>31</v>
+        <v>26.7</v>
       </c>
       <c r="V13">
-        <v>145.53229060000001</v>
+        <v>259.75</v>
       </c>
       <c r="W13">
-        <v>522.98</v>
+        <v>356.41</v>
       </c>
       <c r="X13">
-        <v>0.36</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y13" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Z13">
-        <v>0.36</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AA13">
-        <v>0.35939340199999997</v>
+        <v>0.56342003699999998</v>
       </c>
       <c r="AB13" t="s">
         <v>20</v>
@@ -3549,85 +3497,85 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>27</v>
-      </c>
       <c r="C14">
-        <v>163.69999999999999</v>
+        <v>125.6</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>76.3</v>
+        <v>29.4</v>
       </c>
       <c r="F14">
-        <v>9.9</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H14">
-        <v>15.6</v>
+        <v>23.6</v>
       </c>
       <c r="I14">
-        <v>8.3000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K14">
-        <v>485</v>
+        <v>568</v>
       </c>
       <c r="L14">
-        <v>13.2</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
-        <v>101.5</v>
+        <v>0.5</v>
       </c>
       <c r="N14">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O14">
-        <v>0.23</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P14">
-        <v>1.58</v>
+        <v>3.46</v>
       </c>
       <c r="Q14">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="R14">
-        <v>15.45</v>
+        <v>13.46</v>
       </c>
       <c r="S14">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="T14">
-        <v>46.2</v>
+        <v>10</v>
       </c>
       <c r="U14">
-        <v>26.7</v>
+        <v>15.7</v>
       </c>
       <c r="V14">
-        <v>259.75</v>
+        <v>130.75</v>
       </c>
       <c r="W14">
-        <v>356.41</v>
+        <v>516.30999999999995</v>
       </c>
       <c r="X14">
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="Y14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Z14">
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="AA14">
-        <v>0.56342003699999998</v>
+        <v>0.36755600199999999</v>
       </c>
       <c r="AB14" t="s">
         <v>20</v>
@@ -3641,85 +3589,85 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>125.6</v>
+        <v>180.3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E15">
+        <v>90</v>
+      </c>
+      <c r="F15">
+        <v>5.8</v>
+      </c>
+      <c r="G15">
+        <v>5.5</v>
+      </c>
+      <c r="H15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I15">
+        <v>21.8</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>616</v>
+      </c>
+      <c r="L15">
+        <v>6.5</v>
+      </c>
+      <c r="M15">
+        <v>11.6</v>
+      </c>
+      <c r="N15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.4</v>
+      </c>
+      <c r="P15">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Q15">
+        <v>116</v>
+      </c>
+      <c r="R15">
+        <v>3.03</v>
+      </c>
+      <c r="S15">
+        <v>0.08</v>
+      </c>
+      <c r="T15">
+        <v>29.6</v>
+      </c>
+      <c r="U15">
         <v>29.4</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>1.8</v>
-      </c>
-      <c r="H15">
-        <v>23.6</v>
-      </c>
-      <c r="I15">
-        <v>10.1</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>568</v>
-      </c>
-      <c r="L15">
-        <v>4.5</v>
-      </c>
-      <c r="M15">
-        <v>0.5</v>
-      </c>
-      <c r="N15">
-        <v>2.5</v>
-      </c>
-      <c r="O15">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="P15">
-        <v>3.46</v>
-      </c>
-      <c r="Q15">
-        <v>112</v>
-      </c>
-      <c r="R15">
-        <v>13.46</v>
-      </c>
-      <c r="S15">
-        <v>0.21</v>
-      </c>
-      <c r="T15">
-        <v>10</v>
-      </c>
-      <c r="U15">
-        <v>15.7</v>
-      </c>
       <c r="V15">
-        <v>130.75</v>
+        <v>21.266666669999999</v>
       </c>
       <c r="W15">
-        <v>516.30999999999995</v>
+        <v>629.89</v>
       </c>
       <c r="X15">
-        <v>0.37</v>
+        <v>0.23</v>
       </c>
       <c r="Y15" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="Z15">
-        <v>0.37</v>
+        <v>0.23</v>
       </c>
       <c r="AA15">
-        <v>0.36755600199999999</v>
+        <v>0.228432146</v>
       </c>
       <c r="AB15" t="s">
         <v>20</v>
@@ -3733,85 +3681,85 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>180.3</v>
+        <v>113.4</v>
       </c>
       <c r="D16">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="E16">
-        <v>90</v>
+        <v>81.7</v>
       </c>
       <c r="F16">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>5.5</v>
+        <v>8.6</v>
       </c>
       <c r="H16">
-        <v>9.3000000000000007</v>
+        <v>13.9</v>
       </c>
       <c r="I16">
-        <v>21.8</v>
+        <v>15.7</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>616</v>
+        <v>442</v>
       </c>
       <c r="L16">
-        <v>6.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M16">
-        <v>11.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="N16">
-        <v>1.1000000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="O16">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="P16">
-        <v>2.4500000000000002</v>
+        <v>1.69</v>
       </c>
       <c r="Q16">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="R16">
-        <v>3.03</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="T16">
-        <v>29.6</v>
+        <v>32.6</v>
       </c>
       <c r="U16">
-        <v>29.4</v>
+        <v>33.1</v>
       </c>
       <c r="V16">
-        <v>21.266666669999999</v>
+        <v>35.1</v>
       </c>
       <c r="W16">
-        <v>629.89</v>
+        <v>561.66999999999996</v>
       </c>
       <c r="X16">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="Y16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Z16">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="AA16">
-        <v>0.228432146</v>
+        <v>0.31199595800000002</v>
       </c>
       <c r="AB16" t="s">
         <v>20</v>
@@ -3825,85 +3773,85 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>113.4</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="D17">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>81.7</v>
+        <v>97.3</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="G17">
-        <v>8.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H17">
-        <v>13.9</v>
+        <v>14.6</v>
       </c>
       <c r="I17">
-        <v>15.7</v>
+        <v>20.8</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17">
-        <v>442</v>
+        <v>666</v>
       </c>
       <c r="L17">
-        <v>19.899999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="M17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N17">
+        <v>2.8</v>
+      </c>
+      <c r="O17">
+        <v>0.4</v>
+      </c>
+      <c r="P17">
+        <v>2.36</v>
+      </c>
+      <c r="Q17">
+        <v>120</v>
+      </c>
+      <c r="R17">
+        <v>1.42</v>
+      </c>
+      <c r="S17">
+        <v>0.34</v>
+      </c>
+      <c r="T17">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="U17">
+        <v>16.8</v>
+      </c>
+      <c r="V17">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N17">
-        <v>5.4</v>
-      </c>
-      <c r="O17">
-        <v>0.46</v>
-      </c>
-      <c r="P17">
-        <v>1.69</v>
-      </c>
-      <c r="Q17">
-        <v>50</v>
-      </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
+      <c r="W17">
+        <v>666.29</v>
+      </c>
+      <c r="X17">
         <v>0.18</v>
       </c>
-      <c r="T17">
-        <v>32.6</v>
-      </c>
-      <c r="U17">
-        <v>33.1</v>
-      </c>
-      <c r="V17">
-        <v>35.1</v>
-      </c>
-      <c r="W17">
-        <v>561.66999999999996</v>
-      </c>
-      <c r="X17">
-        <v>0.31</v>
-      </c>
       <c r="Y17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z17">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="AA17">
-        <v>0.31199595800000002</v>
+        <v>0.183843864</v>
       </c>
       <c r="AB17" t="s">
         <v>20</v>
@@ -3917,85 +3865,85 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>137.19999999999999</v>
+        <v>131.5</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>97.3</v>
+        <v>59.9</v>
       </c>
       <c r="F18">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G18">
-        <v>4.4000000000000004</v>
+        <v>11.5</v>
       </c>
       <c r="H18">
-        <v>14.6</v>
+        <v>15.9</v>
       </c>
       <c r="I18">
         <v>20.8</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>666</v>
+        <v>350</v>
       </c>
       <c r="L18">
-        <v>2.9</v>
+        <v>33.5</v>
       </c>
       <c r="M18">
-        <v>1.1000000000000001</v>
+        <v>27</v>
       </c>
       <c r="N18">
-        <v>2.8</v>
+        <v>10.1</v>
       </c>
       <c r="O18">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="P18">
-        <v>2.36</v>
+        <v>2.99</v>
       </c>
       <c r="Q18">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="R18">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="T18">
-        <v>16.399999999999999</v>
+        <v>31</v>
       </c>
       <c r="U18">
-        <v>16.8</v>
+        <v>40.1</v>
       </c>
       <c r="V18">
-        <v>9.6999999999999993</v>
+        <v>27.4</v>
       </c>
       <c r="W18">
-        <v>666.29</v>
+        <v>507.94</v>
       </c>
       <c r="X18">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="Y18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="Z18">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="AA18">
-        <v>0.183843864</v>
+        <v>0.377810963</v>
       </c>
       <c r="AB18" t="s">
         <v>20</v>
@@ -4009,85 +3957,85 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>131.5</v>
+        <v>119.3</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>231.7619048</v>
       </c>
       <c r="E19">
-        <v>59.9</v>
+        <v>101.3</v>
       </c>
       <c r="F19">
-        <v>2.1</v>
+        <v>19</v>
       </c>
       <c r="G19">
-        <v>11.5</v>
+        <v>3.4</v>
       </c>
       <c r="H19">
-        <v>15.9</v>
+        <v>30.1</v>
       </c>
       <c r="I19">
-        <v>20.8</v>
+        <v>9</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="K19">
-        <v>350</v>
+        <v>589</v>
       </c>
       <c r="L19">
-        <v>33.5</v>
+        <v>1.9</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>10.1</v>
+        <v>0.2</v>
       </c>
       <c r="O19">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="P19">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
       <c r="Q19">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="T19">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="U19">
-        <v>40.1</v>
+        <v>22.1</v>
       </c>
       <c r="V19">
-        <v>27.4</v>
+        <v>143.91419310000001</v>
       </c>
       <c r="W19">
-        <v>507.94</v>
+        <v>585.48</v>
       </c>
       <c r="X19">
-        <v>0.38</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Y19" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Z19">
-        <v>0.38</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AA19">
-        <v>0.377810963</v>
+        <v>0.28283361099999998</v>
       </c>
       <c r="AB19" t="s">
         <v>20</v>
@@ -4101,85 +4049,85 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>119.3</v>
+        <v>120.7</v>
       </c>
       <c r="D20">
-        <v>231.7619048</v>
+        <v>716</v>
       </c>
       <c r="E20">
-        <v>101.3</v>
+        <v>61.9</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H20">
-        <v>30.1</v>
+        <v>25.8</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>16.3</v>
       </c>
       <c r="J20">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>589</v>
+        <v>626</v>
       </c>
       <c r="L20">
-        <v>1.9</v>
+        <v>11.4</v>
       </c>
       <c r="M20">
+        <v>29.4</v>
+      </c>
+      <c r="N20">
+        <v>6.1</v>
+      </c>
+      <c r="O20">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="P20">
+        <v>2.17</v>
+      </c>
+      <c r="Q20">
+        <v>126</v>
+      </c>
+      <c r="R20">
+        <v>86.81</v>
+      </c>
+      <c r="S20">
+        <v>0.41</v>
+      </c>
+      <c r="T20">
+        <v>8.5</v>
+      </c>
+      <c r="U20">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="V20">
+        <v>470.4</v>
+      </c>
+      <c r="W20">
+        <v>829.79</v>
+      </c>
+      <c r="X20">
+        <v>-0.02</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z20">
         <v>0</v>
       </c>
-      <c r="N20">
-        <v>0.2</v>
-      </c>
-      <c r="O20">
-        <v>0.4</v>
-      </c>
-      <c r="P20">
-        <v>3.09</v>
-      </c>
-      <c r="Q20">
-        <v>79</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0.03</v>
-      </c>
-      <c r="T20">
-        <v>14</v>
-      </c>
-      <c r="U20">
-        <v>22.1</v>
-      </c>
-      <c r="V20">
-        <v>143.91419310000001</v>
-      </c>
-      <c r="W20">
-        <v>585.48</v>
-      </c>
-      <c r="X20">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z20">
-        <v>0.28000000000000003</v>
-      </c>
       <c r="AA20">
-        <v>0.28283361099999998</v>
+        <v>-1.6433283E-2</v>
       </c>
       <c r="AB20" t="s">
         <v>20</v>
@@ -4193,85 +4141,85 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>120.7</v>
+        <v>104.3</v>
       </c>
       <c r="D21">
-        <v>716</v>
+        <v>231.7619048</v>
       </c>
       <c r="E21">
-        <v>61.9</v>
+        <v>33.4</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>21.7</v>
       </c>
       <c r="G21">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="H21">
+        <v>14.5</v>
+      </c>
+      <c r="I21">
+        <v>17.3</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>319</v>
+      </c>
+      <c r="L21">
+        <v>10.3</v>
+      </c>
+      <c r="M21">
+        <v>53.4</v>
+      </c>
+      <c r="N21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O21">
+        <v>0.84</v>
+      </c>
+      <c r="P21">
+        <v>2.63</v>
+      </c>
+      <c r="Q21">
+        <v>38</v>
+      </c>
+      <c r="R21">
+        <v>39.08</v>
+      </c>
+      <c r="S21">
+        <v>0.26</v>
+      </c>
+      <c r="T21">
         <v>25.8</v>
       </c>
-      <c r="I21">
-        <v>16.3</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>626</v>
-      </c>
-      <c r="L21">
-        <v>11.4</v>
-      </c>
-      <c r="M21">
-        <v>29.4</v>
-      </c>
-      <c r="N21">
-        <v>6.1</v>
-      </c>
-      <c r="O21">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="P21">
-        <v>2.17</v>
-      </c>
-      <c r="Q21">
-        <v>126</v>
-      </c>
-      <c r="R21">
-        <v>86.81</v>
-      </c>
-      <c r="S21">
-        <v>0.41</v>
-      </c>
-      <c r="T21">
-        <v>8.5</v>
-      </c>
       <c r="U21">
-        <v>19.899999999999999</v>
+        <v>27.2</v>
       </c>
       <c r="V21">
-        <v>470.4</v>
+        <v>442.83333329999999</v>
       </c>
       <c r="W21">
-        <v>829.79</v>
+        <v>321.04000000000002</v>
       </c>
       <c r="X21">
-        <v>-0.02</v>
+        <v>0.61</v>
       </c>
       <c r="Y21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="AA21">
-        <v>-1.6433283E-2</v>
+        <v>0.60675446600000005</v>
       </c>
       <c r="AB21" t="s">
         <v>20</v>
@@ -4285,85 +4233,85 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>104.3</v>
+        <v>116.3</v>
       </c>
       <c r="D22">
-        <v>231.7619048</v>
+        <v>176</v>
       </c>
       <c r="E22">
-        <v>33.4</v>
+        <v>77.7</v>
       </c>
       <c r="F22">
-        <v>21.7</v>
+        <v>6.1</v>
       </c>
       <c r="G22">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H22">
-        <v>14.5</v>
+        <v>23.1</v>
       </c>
       <c r="I22">
-        <v>17.3</v>
+        <v>14</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K22">
-        <v>319</v>
+        <v>490</v>
       </c>
       <c r="L22">
-        <v>10.3</v>
+        <v>24.6</v>
       </c>
       <c r="M22">
-        <v>53.4</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="N22">
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="O22">
-        <v>0.84</v>
+        <v>0.23</v>
       </c>
       <c r="P22">
-        <v>2.63</v>
+        <v>2.31</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="R22">
-        <v>39.08</v>
+        <v>5.33</v>
       </c>
       <c r="S22">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="T22">
-        <v>25.8</v>
+        <v>30.2</v>
       </c>
       <c r="U22">
-        <v>27.2</v>
+        <v>24.4</v>
       </c>
       <c r="V22">
-        <v>442.83333329999999</v>
+        <v>95.7</v>
       </c>
       <c r="W22">
-        <v>321.04000000000002</v>
+        <v>513.02</v>
       </c>
       <c r="X22">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
       <c r="Y22" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Z22">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
       <c r="AA22">
-        <v>0.60675446600000005</v>
+        <v>0.37158489099999997</v>
       </c>
       <c r="AB22" t="s">
         <v>20</v>
@@ -4377,85 +4325,85 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>59.4</v>
+      </c>
+      <c r="D23">
+        <v>214</v>
+      </c>
+      <c r="E23">
+        <v>21.6</v>
+      </c>
+      <c r="F23">
+        <v>15.9</v>
+      </c>
+      <c r="G23">
+        <v>7.7</v>
+      </c>
+      <c r="H23">
+        <v>28.3</v>
+      </c>
+      <c r="I23">
+        <v>22.1</v>
+      </c>
+      <c r="J23">
+        <v>-3</v>
+      </c>
+      <c r="K23">
+        <v>259</v>
+      </c>
+      <c r="L23">
+        <v>21.4</v>
+      </c>
+      <c r="M23">
+        <v>30.8</v>
+      </c>
+      <c r="N23">
+        <v>1.6</v>
+      </c>
+      <c r="O23">
+        <v>0.76</v>
+      </c>
+      <c r="P23">
+        <v>1.94</v>
+      </c>
+      <c r="Q23">
+        <v>58</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23">
+        <v>0.2</v>
+      </c>
+      <c r="T23">
+        <v>23.9</v>
+      </c>
+      <c r="U23">
+        <v>40.9</v>
+      </c>
+      <c r="V23">
+        <v>201.6</v>
+      </c>
+      <c r="W23">
+        <v>420.57</v>
+      </c>
+      <c r="X23">
+        <v>0.48</v>
+      </c>
+      <c r="Y23" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
-        <v>116.3</v>
-      </c>
-      <c r="D23">
-        <v>176</v>
-      </c>
-      <c r="E23">
-        <v>77.7</v>
-      </c>
-      <c r="F23">
-        <v>6.1</v>
-      </c>
-      <c r="G23">
-        <v>6.3</v>
-      </c>
-      <c r="H23">
-        <v>23.1</v>
-      </c>
-      <c r="I23">
-        <v>14</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>490</v>
-      </c>
-      <c r="L23">
-        <v>24.6</v>
-      </c>
-      <c r="M23">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="N23">
-        <v>6.1</v>
-      </c>
-      <c r="O23">
-        <v>0.23</v>
-      </c>
-      <c r="P23">
-        <v>2.31</v>
-      </c>
-      <c r="Q23">
-        <v>88</v>
-      </c>
-      <c r="R23">
-        <v>5.33</v>
-      </c>
-      <c r="S23">
-        <v>0.11</v>
-      </c>
-      <c r="T23">
-        <v>30.2</v>
-      </c>
-      <c r="U23">
-        <v>24.4</v>
-      </c>
-      <c r="V23">
-        <v>95.7</v>
-      </c>
-      <c r="W23">
-        <v>513.02</v>
-      </c>
-      <c r="X23">
-        <v>0.37</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>27</v>
-      </c>
       <c r="Z23">
-        <v>0.37</v>
+        <v>0.48</v>
       </c>
       <c r="AA23">
-        <v>0.37158489099999997</v>
+        <v>0.484832759</v>
       </c>
       <c r="AB23" t="s">
         <v>20</v>
@@ -4469,85 +4417,85 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>59.4</v>
+        <v>123.9</v>
       </c>
       <c r="D24">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>21.6</v>
+        <v>64.3</v>
       </c>
       <c r="F24">
-        <v>15.9</v>
+        <v>13.4</v>
       </c>
       <c r="G24">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="H24">
-        <v>28.3</v>
+        <v>16.3</v>
       </c>
       <c r="I24">
-        <v>22.1</v>
+        <v>11.4</v>
       </c>
       <c r="J24">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="K24">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="L24">
-        <v>21.4</v>
+        <v>10.3</v>
       </c>
       <c r="M24">
-        <v>30.8</v>
+        <v>36.6</v>
       </c>
       <c r="N24">
-        <v>1.6</v>
+        <v>8.6</v>
       </c>
       <c r="O24">
-        <v>0.76</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P24">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="Q24">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="R24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="T24">
-        <v>23.9</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="U24">
-        <v>40.9</v>
+        <v>20.6</v>
       </c>
       <c r="V24">
-        <v>201.6</v>
+        <v>144.0111354</v>
       </c>
       <c r="W24">
-        <v>420.57</v>
+        <v>405.83</v>
       </c>
       <c r="X24">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="Y24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z24">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="AA24">
-        <v>0.484832759</v>
+        <v>0.50288314000000001</v>
       </c>
       <c r="AB24" t="s">
         <v>20</v>
@@ -4561,85 +4509,85 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C25">
-        <v>123.9</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>64.3</v>
+        <v>47.7</v>
       </c>
       <c r="F25">
-        <v>13.4</v>
+        <v>5.8</v>
       </c>
       <c r="G25">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="H25">
-        <v>16.3</v>
+        <v>17.2</v>
       </c>
       <c r="I25">
-        <v>11.4</v>
+        <v>12.2</v>
       </c>
       <c r="J25">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>311</v>
+        <v>415</v>
       </c>
       <c r="L25">
-        <v>10.3</v>
+        <v>20.3</v>
       </c>
       <c r="M25">
-        <v>36.6</v>
+        <v>6.9</v>
       </c>
       <c r="N25">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="O25">
-        <v>0.55000000000000004</v>
+        <v>0.99</v>
       </c>
       <c r="P25">
-        <v>1.81</v>
+        <v>3.46</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S25">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="T25">
-        <v>33.700000000000003</v>
+        <v>15.7</v>
       </c>
       <c r="U25">
-        <v>20.6</v>
+        <v>19.3</v>
       </c>
       <c r="V25">
-        <v>144.0111354</v>
+        <v>23.6</v>
       </c>
       <c r="W25">
-        <v>405.83</v>
+        <v>529.23</v>
       </c>
       <c r="X25">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="Y25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Z25">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="AA25">
-        <v>0.50288314000000001</v>
+        <v>0.35172968999999998</v>
       </c>
       <c r="AB25" t="s">
         <v>20</v>
@@ -4653,85 +4601,85 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>151.30000000000001</v>
+        <v>105.9</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="E26">
-        <v>47.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="F26">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="G26">
-        <v>7.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H26">
-        <v>17.2</v>
+        <v>14.1</v>
       </c>
       <c r="I26">
-        <v>12.2</v>
+        <v>22.6</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="L26">
-        <v>20.3</v>
+        <v>48.8</v>
       </c>
       <c r="M26">
-        <v>6.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N26">
-        <v>7</v>
+        <v>15.7</v>
       </c>
       <c r="O26">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
       <c r="P26">
-        <v>3.46</v>
+        <v>2.41</v>
       </c>
       <c r="Q26">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="R26">
-        <v>0.25</v>
+        <v>6.21</v>
       </c>
       <c r="S26">
-        <v>0.35</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T26">
-        <v>15.7</v>
+        <v>22.8</v>
       </c>
       <c r="U26">
-        <v>19.3</v>
+        <v>18.5</v>
       </c>
       <c r="V26">
-        <v>23.6</v>
+        <v>71.7</v>
       </c>
       <c r="W26">
-        <v>529.23</v>
+        <v>512.73</v>
       </c>
       <c r="X26">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="Y26" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Z26">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="AA26">
-        <v>0.35172968999999998</v>
+        <v>0.37194301299999999</v>
       </c>
       <c r="AB26" t="s">
         <v>20</v>
@@ -4745,85 +4693,85 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>151</v>
+      </c>
+      <c r="D27">
+        <v>595</v>
+      </c>
+      <c r="E27">
+        <v>49.8</v>
+      </c>
+      <c r="F27">
+        <v>3.5</v>
+      </c>
+      <c r="G27">
+        <v>7.3</v>
+      </c>
+      <c r="H27">
+        <v>9.9</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>-3</v>
+      </c>
+      <c r="K27">
+        <v>382</v>
+      </c>
+      <c r="L27">
         <v>14</v>
       </c>
-      <c r="C27">
-        <v>105.9</v>
-      </c>
-      <c r="D27">
-        <v>125</v>
-      </c>
-      <c r="E27">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="F27">
-        <v>2.8</v>
-      </c>
-      <c r="G27">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H27">
-        <v>14.1</v>
-      </c>
-      <c r="I27">
-        <v>22.6</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>449</v>
-      </c>
-      <c r="L27">
-        <v>48.8</v>
-      </c>
       <c r="M27">
-        <v>9.1999999999999993</v>
+        <v>80.3</v>
       </c>
       <c r="N27">
-        <v>15.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O27">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="P27">
-        <v>2.41</v>
+        <v>2.62</v>
       </c>
       <c r="Q27">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="R27">
-        <v>6.21</v>
+        <v>4.63</v>
       </c>
       <c r="S27">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="T27">
-        <v>22.8</v>
+        <v>26</v>
       </c>
       <c r="U27">
-        <v>18.5</v>
+        <v>31.5</v>
       </c>
       <c r="V27">
-        <v>71.7</v>
+        <v>144.12424999999999</v>
       </c>
       <c r="W27">
-        <v>512.73</v>
+        <v>713.83</v>
       </c>
       <c r="X27">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="Y27" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Z27">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="AA27">
-        <v>0.37194301299999999</v>
+        <v>0.12560487200000001</v>
       </c>
       <c r="AB27" t="s">
         <v>20</v>
@@ -4837,85 +4785,85 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>151</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="D28">
-        <v>595</v>
+        <v>231.7619048</v>
       </c>
       <c r="E28">
-        <v>49.8</v>
+        <v>36.6</v>
       </c>
       <c r="F28">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="G28">
-        <v>7.3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H28">
-        <v>9.9</v>
+        <v>19.8</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="J28">
-        <v>-3</v>
+        <v>-0.54545454500000001</v>
       </c>
       <c r="K28">
-        <v>382</v>
+        <v>491</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>4.2</v>
       </c>
       <c r="M28">
-        <v>80.3</v>
+        <v>100.8</v>
       </c>
       <c r="N28">
-        <v>2.2999999999999998</v>
+        <v>3.7</v>
       </c>
       <c r="O28">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="P28">
-        <v>2.62</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="Q28">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="R28">
-        <v>4.63</v>
+        <v>21.71</v>
       </c>
       <c r="S28">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T28">
-        <v>26</v>
+        <v>21.3</v>
       </c>
       <c r="U28">
-        <v>31.5</v>
+        <v>22.7</v>
       </c>
       <c r="V28">
-        <v>144.12424999999999</v>
+        <v>325.2</v>
       </c>
       <c r="W28">
-        <v>713.83</v>
+        <v>389.19</v>
       </c>
       <c r="X28">
-        <v>0.13</v>
+        <v>0.52</v>
       </c>
       <c r="Y28" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="Z28">
-        <v>0.13</v>
+        <v>0.52</v>
       </c>
       <c r="AA28">
-        <v>0.12560487200000001</v>
+        <v>0.523269969</v>
       </c>
       <c r="AB28" t="s">
         <v>20</v>
@@ -4929,85 +4877,85 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>151.69999999999999</v>
+        <v>148.9</v>
       </c>
       <c r="D29">
-        <v>231.7619048</v>
+        <v>180</v>
       </c>
       <c r="E29">
-        <v>36.6</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="F29">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="G29">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="H29">
-        <v>19.8</v>
+        <v>20.8</v>
       </c>
       <c r="I29">
-        <v>8.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J29">
-        <v>-0.54545454500000001</v>
+        <v>-3</v>
       </c>
       <c r="K29">
-        <v>491</v>
+        <v>529</v>
       </c>
       <c r="L29">
-        <v>4.2</v>
+        <v>12.9</v>
       </c>
       <c r="M29">
-        <v>100.8</v>
+        <v>61.9</v>
       </c>
       <c r="N29">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
       <c r="O29">
-        <v>0.2</v>
+        <v>0.76</v>
       </c>
       <c r="P29">
-        <v>2.4700000000000002</v>
+        <v>3.05</v>
       </c>
       <c r="Q29">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="R29">
-        <v>21.71</v>
+        <v>30.91</v>
       </c>
       <c r="S29">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="T29">
-        <v>21.3</v>
+        <v>29.2</v>
       </c>
       <c r="U29">
-        <v>22.7</v>
+        <v>28.1</v>
       </c>
       <c r="V29">
-        <v>325.2</v>
+        <v>144.25230629999999</v>
       </c>
       <c r="W29">
-        <v>389.19</v>
+        <v>499.93</v>
       </c>
       <c r="X29">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="Y29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Z29">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="AA29">
-        <v>0.523269969</v>
+        <v>0.38761910300000002</v>
       </c>
       <c r="AB29" t="s">
         <v>20</v>
@@ -5021,7 +4969,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>19</v>
@@ -5030,76 +4978,76 @@
         <v>148.9</v>
       </c>
       <c r="D30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>81.400000000000006</v>
+        <v>-5.6</v>
       </c>
       <c r="F30">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="G30">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H30">
-        <v>20.8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I30">
         <v>8.3000000000000007</v>
       </c>
       <c r="J30">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="K30">
-        <v>529</v>
+        <v>259</v>
       </c>
       <c r="L30">
-        <v>12.9</v>
+        <v>48.8</v>
       </c>
       <c r="M30">
-        <v>61.9</v>
+        <v>212.6</v>
       </c>
       <c r="N30">
-        <v>8.4</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="O30">
-        <v>0.76</v>
+        <v>0.99</v>
       </c>
       <c r="P30">
-        <v>3.05</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="Q30">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="R30">
-        <v>30.91</v>
+        <v>86.81</v>
       </c>
       <c r="S30">
-        <v>0.16</v>
+        <v>0.41</v>
       </c>
       <c r="T30">
-        <v>29.2</v>
+        <v>8.5</v>
       </c>
       <c r="U30">
-        <v>28.1</v>
+        <v>15.3</v>
       </c>
       <c r="V30">
-        <v>144.25230629999999</v>
-      </c>
-      <c r="W30">
-        <v>499.93</v>
-      </c>
-      <c r="X30">
-        <v>0.39</v>
+        <v>470.4</v>
+      </c>
+      <c r="W30" t="s">
+        <v>20</v>
+      </c>
+      <c r="X30" t="s">
+        <v>20</v>
       </c>
       <c r="Y30" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z30">
-        <v>0.39</v>
-      </c>
-      <c r="AA30">
-        <v>0.38761910300000002</v>
+        <v>20</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>20</v>
       </c>
       <c r="AB30" t="s">
         <v>20</v>
@@ -5108,98 +5056,6 @@
         <v>20</v>
       </c>
       <c r="AD30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31">
-        <v>19</v>
-      </c>
-      <c r="C31">
-        <v>148.9</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>-5.6</v>
-      </c>
-      <c r="F31">
-        <v>1.9</v>
-      </c>
-      <c r="G31">
-        <v>1.8</v>
-      </c>
-      <c r="H31">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I31">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J31">
-        <v>-6</v>
-      </c>
-      <c r="K31">
-        <v>259</v>
-      </c>
-      <c r="L31">
-        <v>48.8</v>
-      </c>
-      <c r="M31">
-        <v>212.6</v>
-      </c>
-      <c r="N31">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="O31">
-        <v>0.99</v>
-      </c>
-      <c r="P31">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="Q31">
-        <v>143</v>
-      </c>
-      <c r="R31">
-        <v>86.81</v>
-      </c>
-      <c r="S31">
-        <v>0.41</v>
-      </c>
-      <c r="T31">
-        <v>8.5</v>
-      </c>
-      <c r="U31">
-        <v>15.3</v>
-      </c>
-      <c r="V31">
-        <v>470.4</v>
-      </c>
-      <c r="W31" t="s">
-        <v>20</v>
-      </c>
-      <c r="X31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD31" t="s">
         <v>20</v>
       </c>
     </row>
